--- a/archivosExcelGuardados/pesos.xlsx
+++ b/archivosExcelGuardados/pesos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,57 +423,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.43</v>
+        <v>0.03</v>
       </c>
       <c r="B1" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="C1" t="n">
-        <v>-0.61</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02</v>
+        <v>0.79</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.66</v>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>

--- a/archivosExcelGuardados/pesos.xlsx
+++ b/archivosExcelGuardados/pesos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,26 +423,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.03</v>
+        <v>-0.34</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7</v>
+        <v>-0.88</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.13</v>
+      <c r="C1" t="n">
+        <v>-0.36</v>
       </c>
-      <c r="B2" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.42</v>
+      <c r="D1" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/archivosExcelGuardados/pesos.xlsx
+++ b/archivosExcelGuardados/pesos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,16 +423,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.34</v>
+        <v>0.76</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.88</v>
+        <v>-0.18</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="D1" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
